--- a/mankiw.xlsx
+++ b/mankiw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CBF5EF7-9877-4648-B8EA-6CD949AC2563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2CA41C-2B6D-4BCD-9E7C-DDE42051033F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9BF2A63E-BCA2-4019-A7C9-805074FD008D}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="29">
   <si>
     <t>country</t>
   </si>
@@ -124,7 +124,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -198,8 +198,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -521,7 +521,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,7 +567,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4">
-        <v>1.1213953919949635</v>
+        <v>1.2723229505348417</v>
       </c>
       <c r="D2" s="4">
         <v>11.332087601013553</v>
@@ -576,18 +576,18 @@
         <v>10.963518047455977</v>
       </c>
       <c r="F2" s="4">
-        <v>-1.2486237601882917</v>
+        <v>3.3565464257997997</v>
       </c>
       <c r="G2" s="8">
         <v>1.1783588733060848</v>
       </c>
       <c r="H2">
         <f>F2-C2</f>
-        <v>-2.3700191521832554</v>
+        <v>2.0842234752649578</v>
       </c>
       <c r="I2" s="7">
         <f>G2-C2</f>
-        <v>5.6963481311121278E-2</v>
+        <v>-9.3964077228756882E-2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -598,7 +598,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="4">
-        <v>1.0759724746904733</v>
+        <v>1.2333889644662455</v>
       </c>
       <c r="D3" s="4">
         <v>11.286508807715036</v>
@@ -607,18 +607,18 @@
         <v>10.935362471943446</v>
       </c>
       <c r="F3" s="4">
-        <v>-1.2442316944957463</v>
+        <v>3.360938491492345</v>
       </c>
       <c r="G3" s="8">
         <v>1.1188496439627533</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H16" si="0">F3-C3</f>
-        <v>-2.3202041691862196</v>
+        <v>2.1275495270260993</v>
       </c>
       <c r="I3" s="7">
         <f t="shared" ref="I3:I16" si="1">G3-C3</f>
-        <v>4.2877169272280025E-2</v>
+        <v>-0.11453932050349214</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -629,7 +629,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="4">
-        <v>1.1307756173180092</v>
+        <v>1.2803943878430648</v>
       </c>
       <c r="D4" s="4">
         <v>11.3798315376972</v>
@@ -638,18 +638,18 @@
         <v>10.9513857817222</v>
       </c>
       <c r="F4" s="4">
-        <v>-1.3291518188568214</v>
+        <v>3.2760183671312699</v>
       </c>
       <c r="G4" s="8">
         <v>1.2384383393986702</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>-2.4599274361748309</v>
+        <v>1.9956239792882051</v>
       </c>
       <c r="I4" s="7">
         <f t="shared" si="1"/>
-        <v>0.10766272208066097</v>
+        <v>-4.19560484443946E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -660,7 +660,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="4">
-        <v>0.75166600943868744</v>
+        <v>0.96337654854955879</v>
       </c>
       <c r="D5" s="4">
         <v>11.238773220647426</v>
@@ -669,18 +669,18 @@
         <v>10.889005726270646</v>
       </c>
       <c r="F5" s="4">
-        <v>-1.3380643680972493</v>
+        <v>3.2671058178908421</v>
       </c>
       <c r="G5" s="8">
         <v>1.1993801792032437</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>-2.0897303775359366</v>
+        <v>2.3037292693412832</v>
       </c>
       <c r="I5" s="7">
         <f t="shared" si="1"/>
-        <v>0.44771416976455625</v>
+        <v>0.2360036306536849</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -691,7 +691,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="4">
-        <v>0.77784191046313389</v>
+        <v>0.98461066793515917</v>
       </c>
       <c r="D6" s="4">
         <v>11.190453025466054</v>
@@ -700,18 +700,18 @@
         <v>10.895526946200436</v>
       </c>
       <c r="F6" s="4">
-        <v>-1.4276977908193249</v>
+        <v>3.1774723951687665</v>
       </c>
       <c r="G6" s="8">
         <v>1.1187143949744367</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>-2.2055397012824587</v>
+        <v>2.1928617272336073</v>
       </c>
       <c r="I6" s="7">
         <f t="shared" si="1"/>
-        <v>0.34087248451130281</v>
+        <v>0.13410372703927753</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -722,7 +722,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="4">
-        <v>0.79785746966086024</v>
+        <v>1.0009177747258793</v>
       </c>
       <c r="D7" s="4">
         <v>11.286474171940526</v>
@@ -731,18 +731,18 @@
         <v>10.911365050525022</v>
       </c>
       <c r="F7" s="4">
-        <v>-1.4537000886918803</v>
+        <v>3.1514700972962109</v>
       </c>
       <c r="G7" s="8">
         <v>1.2867083677924047</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>-2.2515575583527405</v>
+        <v>2.1505523225703316</v>
       </c>
       <c r="I7" s="7">
         <f t="shared" si="1"/>
-        <v>0.48885089813154448</v>
+        <v>0.28579059306652543</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -753,7 +753,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="4">
-        <v>-0.93176034943862174</v>
+        <v>-0.11220637412336955</v>
       </c>
       <c r="D8" s="4">
         <v>10.723273121950177</v>
@@ -762,18 +762,18 @@
         <v>10.529094594778112</v>
       </c>
       <c r="F8" s="4">
-        <v>-1.5789985448134498</v>
+        <v>3.0261716411746415</v>
       </c>
       <c r="G8" s="8">
         <v>1.0757748921042636</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>-0.64723819537482807</v>
+        <v>3.1383780152980112</v>
       </c>
       <c r="I8" s="7">
         <f t="shared" si="1"/>
-        <v>2.0075352415428851</v>
+        <v>1.1879812662276332</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -784,7 +784,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="4">
-        <v>2.5055101317198938</v>
+        <v>2.5455160861528419</v>
       </c>
       <c r="D9" s="4">
         <v>11.961573704806684</v>
@@ -793,18 +793,18 @@
         <v>10.990411441814603</v>
       </c>
       <c r="F9" s="4">
-        <v>-0.88651289548165679</v>
+        <v>3.7186572905064348</v>
       </c>
       <c r="G9" s="8">
         <v>1.1055655373710498</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>-3.3920230272015504</v>
+        <v>1.1731412043535929</v>
       </c>
       <c r="I9" s="7">
         <f t="shared" si="1"/>
-        <v>-1.399944594348844</v>
+        <v>-1.4399505487817921</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -815,7 +815,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="4">
-        <v>7.6770306049628714E-2</v>
+        <v>0.45729447509174842</v>
       </c>
       <c r="D10" s="4">
         <v>11.07989591483423</v>
@@ -824,18 +824,18 @@
         <v>10.904755141906591</v>
       </c>
       <c r="F10" s="4">
-        <v>-1.3942550404379475</v>
+        <v>3.2109151455501439</v>
       </c>
       <c r="G10" s="8">
         <v>1.0868801797308021</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>-1.4710253464875762</v>
+        <v>2.7536206704583956</v>
       </c>
       <c r="I10" s="7">
         <f t="shared" si="1"/>
-        <v>1.0101098736811733</v>
+        <v>0.62958570463905361</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -846,7 +846,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4">
-        <v>1.8097654481019776</v>
+        <v>1.8884345327995145</v>
       </c>
       <c r="D11" s="4">
         <v>11.998004481306156</v>
@@ -855,18 +855,18 @@
         <v>11.609750142412009</v>
       </c>
       <c r="F11" s="4">
-        <v>-1.3614012108661997</v>
+        <v>3.2437689751218919</v>
       </c>
       <c r="G11" s="8">
         <v>1.1770542205559544</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>-3.1711666589681773</v>
+        <v>1.3553344423223774</v>
       </c>
       <c r="I11" s="7">
         <f t="shared" si="1"/>
-        <v>-0.63271122754602316</v>
+        <v>-0.71138031224356002</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -877,7 +877,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="4">
-        <v>0.70650151545323936</v>
+        <v>0.92698842875299692</v>
       </c>
       <c r="D12" s="4">
         <v>11.366182425792012</v>
@@ -886,18 +886,18 @@
         <v>11.067517943455304</v>
       </c>
       <c r="F12" s="4">
-        <v>-1.4429249536646396</v>
+        <v>3.1622452323234516</v>
       </c>
       <c r="G12" s="8">
         <v>1.1847053988776615</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>-2.1494264691178788</v>
+        <v>2.2352568035704548</v>
       </c>
       <c r="I12" s="7">
         <f t="shared" si="1"/>
-        <v>0.4782038834244221</v>
+        <v>0.25771697012466455</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -908,7 +908,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="4">
-        <v>0.61054015345680113</v>
+        <v>0.85076005266227261</v>
       </c>
       <c r="D13" s="4">
         <v>10.882328378454782</v>
@@ -917,18 +917,18 @@
         <v>10.528904340618329</v>
       </c>
       <c r="F13" s="4">
-        <v>-1.3246014896426099</v>
+        <v>3.2805686963454814</v>
       </c>
       <c r="G13" s="8">
         <v>0.86649589181541498</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>-1.9351416430994111</v>
+        <v>2.4298086436832089</v>
       </c>
       <c r="I13" s="7">
         <f t="shared" si="1"/>
-        <v>0.25595573835861385</v>
+        <v>1.5735839153142361E-2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -939,7 +939,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="4">
-        <v>1.234713151908488</v>
+        <v>1.3705186691325848</v>
       </c>
       <c r="D14" s="4">
         <v>11.047230261618926</v>
@@ -948,18 +948,18 @@
         <v>10.638660848819169</v>
       </c>
       <c r="F14" s="4">
-        <v>-1.3232500346954141</v>
+        <v>3.281920151292677</v>
       </c>
       <c r="G14" s="8">
         <v>1.0333317456098148</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>-2.5579631866039021</v>
+        <v>1.9114014821600922</v>
       </c>
       <c r="I14" s="7">
         <f t="shared" si="1"/>
-        <v>-0.20138140629867318</v>
+        <v>-0.33718692352277002</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -970,7 +970,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="4">
-        <v>1.1233369789337666</v>
+        <v>1.2739927674949967</v>
       </c>
       <c r="D15" s="4">
         <v>11.404815652169791</v>
@@ -979,18 +979,18 @@
         <v>11.034842095752198</v>
       </c>
       <c r="F15" s="4">
-        <v>-1.3350338214983744</v>
+        <v>3.270136364489717</v>
       </c>
       <c r="G15" s="8">
         <v>1.1966185815335302</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>-2.458370800432141</v>
+        <v>1.9961435969947203</v>
       </c>
       <c r="I15" s="7">
         <f t="shared" si="1"/>
-        <v>7.3281602599763573E-2</v>
+        <v>-7.7374185961466502E-2</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1001,7 +1001,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="4">
-        <v>0.93586108097911924</v>
+        <v>1.1149473945177077</v>
       </c>
       <c r="D16" s="4">
         <v>11.193518156131336</v>
@@ -1010,18 +1010,18 @@
         <v>10.909989078545433</v>
       </c>
       <c r="F16" s="4">
-        <v>-1.5001892913107284</v>
+        <v>3.1049808946773632</v>
       </c>
       <c r="G16" s="8">
         <v>1.2924214140405292</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>-2.4360503722898477</v>
+        <v>1.9900335001596554</v>
       </c>
       <c r="I16" s="7">
         <f t="shared" si="1"/>
-        <v>0.35656033306141</v>
+        <v>0.17747401952282149</v>
       </c>
     </row>
   </sheetData>
@@ -1035,7 +1035,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D2" sqref="D2:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,8 +1069,8 @@
         <v>3.5691338615200063</v>
       </c>
       <c r="D2">
-        <f>LN(B2)</f>
-        <v>1.1213953919949635</v>
+        <f>LN(C2)</f>
+        <v>1.2723229505348417</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1085,8 +1085,8 @@
         <v>3.4328436303793866</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D16" si="1">LN(B3)</f>
-        <v>1.0759724746904733</v>
+        <f t="shared" ref="D3:D16" si="1">LN(C3)</f>
+        <v>1.2333889644662455</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1102,7 +1102,7 @@
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>1.1307756173180092</v>
+        <v>1.2803943878430648</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>0.75166600943868744</v>
+        <v>0.96337654854955879</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>0.77784191046313389</v>
+        <v>0.98461066793515917</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>0.79785746966086024</v>
+        <v>1.0009177747258793</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>-0.93176034943862174</v>
+        <v>-0.11220637412336955</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>2.5055101317198938</v>
+        <v>2.5455160861528419</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>7.6770306049628714E-2</v>
+        <v>0.45729447509174842</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>1.8097654481019776</v>
+        <v>1.8884345327995145</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>0.70650151545323936</v>
+        <v>0.92698842875299692</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>0.61054015345680113</v>
+        <v>0.85076005266227261</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>1.234713151908488</v>
+        <v>1.3705186691325848</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>1.1233369789337666</v>
+        <v>1.2739927674949967</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>0.93586108097911924</v>
+        <v>1.1149473945177077</v>
       </c>
     </row>
   </sheetData>
@@ -1514,23 +1514,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCD8C5C-E9E4-414B-893A-9E6070B6CA71}">
-  <dimension ref="B1:F31"/>
+  <dimension ref="B1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F16"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>0.27395746308318142</v>
       </c>
@@ -1542,11 +1542,15 @@
         <v>0.28689936761758933</v>
       </c>
       <c r="F2">
-        <f>LN(E2)</f>
-        <v>-1.2486237601882917</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+        <f>E2*100</f>
+        <v>28.689936761758933</v>
+      </c>
+      <c r="G2">
+        <f>LN(F2)</f>
+        <v>3.3565464257997997</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>0.29984127215199724</v>
       </c>
@@ -1554,11 +1558,15 @@
         <v>0.28816221972195721</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F16" si="0">LN(E3)</f>
-        <v>-1.2442316944957463</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+        <f>E3*100</f>
+        <v>28.81622197219572</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G16" si="0">LN(F3)</f>
+        <v>3.360938491492345</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>0.25607495014320514</v>
       </c>
@@ -1570,11 +1578,15 @@
         <v>0.26470168108651942</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
-        <v>-1.3291518188568214</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+        <f>E4*100</f>
+        <v>26.470168108651944</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>3.2760183671312699</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>0.32024948930070934</v>
       </c>
@@ -1582,11 +1594,15 @@
         <v>0.26235299625144071</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
-        <v>-1.3380643680972493</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+        <f>E5*100</f>
+        <v>26.235299625144069</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>3.2671058178908421</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>0.24375964437830019</v>
       </c>
@@ -1598,11 +1614,15 @@
         <v>0.2398604961171597</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
-        <v>-1.4276977908193249</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+        <f>E6*100</f>
+        <v>23.98604961171597</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>3.1774723951687665</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>0.28564371779473868</v>
       </c>
@@ -1610,11 +1630,15 @@
         <v>0.23370396095537688</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
-        <v>-1.4537000886918803</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+        <f>E7*100</f>
+        <v>23.370396095537689</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>3.1514700972962109</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>0.27134112390878057</v>
       </c>
@@ -1626,11 +1650,15 @@
         <v>0.20618147635726819</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
-        <v>-1.5789985448134498</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+        <f>E8*100</f>
+        <v>20.618147635726817</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>3.0261716411746415</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>0.25336486859410084</v>
       </c>
@@ -1638,11 +1666,15 @@
         <v>0.41209025195396221</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
-        <v>-0.88651289548165679</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+        <f>E9*100</f>
+        <v>41.209025195396222</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>3.7186572905064348</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>0.21261804966587591</v>
       </c>
@@ -1654,11 +1686,15 @@
         <v>0.24801773074384242</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
-        <v>-1.3942550404379475</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+        <f>E10*100</f>
+        <v>24.801773074384244</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>3.2109151455501439</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>0.26710294256844352</v>
       </c>
@@ -1666,11 +1702,15 @@
         <v>0.25630139292916232</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
-        <v>-1.3614012108661997</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+        <f>E11*100</f>
+        <v>25.630139292916233</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>3.2437689751218919</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>0.24216814569608544</v>
       </c>
@@ -1682,11 +1722,15 @@
         <v>0.23623576847910144</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
-        <v>-1.4429249536646396</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+        <f>E12*100</f>
+        <v>23.623576847910144</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>3.1622452323234516</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>0.22523977621466831</v>
       </c>
@@ -1694,11 +1738,15 @@
         <v>0.26590890543010348</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
-        <v>-1.3246014896426099</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+        <f>E13*100</f>
+        <v>26.590890543010349</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>3.2805686963454814</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>0.25817382267335082</v>
       </c>
@@ -1710,11 +1758,15 @@
         <v>0.26626851227734372</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
-        <v>-1.3232500346954141</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+        <f>E14*100</f>
+        <v>26.62685122773437</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>3.281920151292677</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>0.15418913004118553</v>
       </c>
@@ -1722,11 +1774,15 @@
         <v>0.26314927520273612</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
-        <v>-1.3350338214983744</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+        <f>E15*100</f>
+        <v>26.314927520273613</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>3.270136364489717</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>0.25814756122479127</v>
       </c>
@@ -1738,8 +1794,12 @@
         <v>0.22308792754521081</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
-        <v>-1.5001892913107284</v>
+        <f>E16*100</f>
+        <v>22.308792754521082</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>3.1049808946773632</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
@@ -2065,7 +2125,7 @@
   <dimension ref="B1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F16"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
